--- a/GDP_VN.xlsx
+++ b/GDP_VN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_Project\Do_An_NNLT_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCAA6E3-9CF5-4F0A-9249-BEEEE584888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="9420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="V03.01" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>..</t>
-  </si>
-  <si>
-    <t>Một số chỉ tiêu tài khoản Quốc Gia</t>
   </si>
   <si>
     <t>Tổng sản phẩm trong nước theo giá thực tế - Tỷ đồng</t>
@@ -48,7 +46,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -848,364 +846,359 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection sqref="A1:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="B1">
+        <v>2000</v>
+      </c>
+      <c r="C1">
+        <v>2001</v>
+      </c>
+      <c r="D1">
+        <v>2002</v>
+      </c>
+      <c r="E1">
+        <v>2003</v>
+      </c>
+      <c r="F1">
+        <v>2004</v>
+      </c>
+      <c r="G1">
+        <v>2005</v>
+      </c>
+      <c r="H1">
+        <v>2006</v>
+      </c>
+      <c r="I1">
+        <v>2007</v>
+      </c>
+      <c r="J1">
+        <v>2008</v>
+      </c>
+      <c r="K1">
+        <v>2009</v>
+      </c>
+      <c r="L1">
+        <v>2010</v>
+      </c>
+      <c r="M1">
+        <v>2011</v>
+      </c>
+      <c r="N1">
+        <v>2012</v>
+      </c>
+      <c r="O1">
+        <v>2013</v>
+      </c>
+      <c r="P1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>441646</v>
+      </c>
+      <c r="C2" s="1">
+        <v>481295</v>
+      </c>
+      <c r="D2" s="1">
+        <v>535762</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1809149</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2157828</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2779880</v>
+      </c>
+      <c r="H2" s="1">
+        <v>3245419</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3584262</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3937856</v>
+      </c>
+      <c r="K2" s="1">
+        <v>4192862</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4502733</v>
+      </c>
+      <c r="M2" s="1">
+        <v>5005975</v>
+      </c>
+      <c r="N2" s="1">
+        <v>5542331.8700000001</v>
+      </c>
+      <c r="O2" s="1">
+        <v>6037347.6299999999</v>
+      </c>
+      <c r="P2" s="1">
+        <v>6293144.9000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5689</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6117</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6720</v>
+      </c>
+      <c r="E3" s="1">
+        <v>19278</v>
+      </c>
+      <c r="F3" s="1">
+        <v>24818</v>
+      </c>
+      <c r="G3" s="1">
+        <v>31640</v>
+      </c>
+      <c r="H3" s="1">
+        <v>36544</v>
+      </c>
+      <c r="I3" s="1">
+        <v>39932</v>
+      </c>
+      <c r="J3" s="1">
+        <v>43402</v>
+      </c>
+      <c r="K3" s="1">
+        <v>45462</v>
+      </c>
+      <c r="L3" s="1">
+        <v>48286</v>
+      </c>
+      <c r="M3" s="1">
+        <v>53093.55</v>
+      </c>
+      <c r="N3" s="1">
+        <v>58104.75</v>
+      </c>
+      <c r="O3" s="1">
+        <v>62573.58</v>
+      </c>
+      <c r="P3" s="1">
+        <v>64490.37</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="B4">
-        <v>2000</v>
-      </c>
-      <c r="C4">
-        <v>2001</v>
-      </c>
-      <c r="D4">
-        <v>2002</v>
-      </c>
-      <c r="E4">
-        <v>2003</v>
-      </c>
-      <c r="F4">
-        <v>2004</v>
-      </c>
-      <c r="G4">
-        <v>2005</v>
-      </c>
-      <c r="H4">
-        <v>2006</v>
-      </c>
-      <c r="I4">
-        <v>2007</v>
-      </c>
-      <c r="J4">
-        <v>2008</v>
-      </c>
-      <c r="K4">
-        <v>2009</v>
-      </c>
-      <c r="L4">
-        <v>2010</v>
-      </c>
-      <c r="M4">
-        <v>2011</v>
-      </c>
-      <c r="N4">
-        <v>2012</v>
-      </c>
-      <c r="O4">
-        <v>2013</v>
-      </c>
-      <c r="P4">
-        <v>2014</v>
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>402</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>440</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1064</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1273</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1517</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1748</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1907</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2052</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2097</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2202</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2372.9499999999998</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2570.33</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2714.2</v>
+      </c>
+      <c r="P4" s="1">
+        <v>2778.76</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>441646</v>
+        <v>130771</v>
       </c>
       <c r="C5" s="1">
-        <v>481295</v>
+        <v>150033</v>
       </c>
       <c r="D5" s="1">
-        <v>535762</v>
+        <v>177983</v>
       </c>
       <c r="E5" s="1">
-        <v>1809149</v>
+        <v>632326</v>
       </c>
       <c r="F5" s="1">
-        <v>2157828</v>
+        <v>770211</v>
       </c>
       <c r="G5" s="1">
-        <v>2779880</v>
+        <v>827032</v>
       </c>
       <c r="H5" s="1">
-        <v>3245419</v>
+        <v>884160</v>
       </c>
       <c r="I5" s="1">
-        <v>3584262</v>
+        <v>956124</v>
       </c>
       <c r="J5" s="1">
-        <v>3937856</v>
+        <v>1056632</v>
       </c>
       <c r="K5" s="1">
-        <v>4192862</v>
+        <v>1160447</v>
       </c>
       <c r="L5" s="1">
-        <v>4502733</v>
+        <v>1196739</v>
       </c>
       <c r="M5" s="1">
-        <v>5005975</v>
+        <v>1330694</v>
       </c>
       <c r="N5" s="1">
-        <v>5542331.8700000001</v>
+        <v>1470550.45</v>
       </c>
       <c r="O5" s="1">
-        <v>6037347.6299999999</v>
+        <v>1620655.48</v>
       </c>
       <c r="P5" s="1">
-        <v>6293144.9000000004</v>
+        <v>1699865</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>5689</v>
+        <v>321853</v>
       </c>
       <c r="C6" s="1">
-        <v>6117</v>
+        <v>342607</v>
       </c>
       <c r="D6" s="1">
-        <v>6720</v>
+        <v>382137</v>
       </c>
       <c r="E6" s="1">
-        <v>19278</v>
+        <v>1206819</v>
       </c>
       <c r="F6" s="1">
-        <v>24818</v>
+        <v>1565602</v>
       </c>
       <c r="G6" s="1">
-        <v>31640</v>
+        <v>2008700</v>
       </c>
       <c r="H6" s="1">
-        <v>36544</v>
+        <v>2285623</v>
       </c>
       <c r="I6" s="1">
-        <v>39932</v>
+        <v>2566803</v>
       </c>
       <c r="J6" s="1">
-        <v>43402</v>
+        <v>2838048</v>
       </c>
       <c r="K6" s="1">
-        <v>45462</v>
+        <v>3115085</v>
       </c>
       <c r="L6" s="1">
-        <v>48286</v>
+        <v>3379404</v>
       </c>
       <c r="M6" s="1">
-        <v>53093.55</v>
+        <v>3731554</v>
       </c>
       <c r="N6" s="1">
-        <v>58104.75</v>
+        <v>4103654.73</v>
       </c>
       <c r="O6" s="1">
-        <v>62573.58</v>
+        <v>4505237</v>
       </c>
       <c r="P6" s="1">
-        <v>64490.37</v>
+        <v>4692674</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>402</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
+        <v>243049</v>
+      </c>
+      <c r="C7" s="1">
+        <v>262846</v>
       </c>
       <c r="D7" s="1">
-        <v>440</v>
+        <v>304262</v>
       </c>
       <c r="E7" s="1">
-        <v>1064</v>
+        <v>1132688</v>
       </c>
       <c r="F7" s="1">
-        <v>1273</v>
+        <v>1553687</v>
       </c>
       <c r="G7" s="1">
-        <v>1517</v>
+        <v>2206971</v>
       </c>
       <c r="H7" s="1">
-        <v>1748</v>
+        <v>2597264</v>
       </c>
       <c r="I7" s="1">
-        <v>1907</v>
+        <v>2997380</v>
       </c>
       <c r="J7" s="1">
-        <v>2052</v>
+        <v>3402495</v>
       </c>
       <c r="K7" s="1">
-        <v>2097</v>
+        <v>3764320</v>
       </c>
       <c r="L7" s="1">
-        <v>2202</v>
+        <v>4215636</v>
       </c>
       <c r="M7" s="1">
-        <v>2372.9499999999998</v>
+        <v>5085742</v>
       </c>
       <c r="N7" s="1">
-        <v>2570.33</v>
+        <v>5865549.6500000004</v>
       </c>
       <c r="O7" s="1">
-        <v>2714.2</v>
+        <v>6447618.7400000002</v>
       </c>
       <c r="P7" s="1">
-        <v>2778.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="1">
-        <v>130771</v>
-      </c>
-      <c r="C8" s="1">
-        <v>150033</v>
-      </c>
-      <c r="D8" s="1">
-        <v>177983</v>
-      </c>
-      <c r="E8" s="1">
-        <v>632326</v>
-      </c>
-      <c r="F8" s="1">
-        <v>770211</v>
-      </c>
-      <c r="G8" s="1">
-        <v>827032</v>
-      </c>
-      <c r="H8" s="1">
-        <v>884160</v>
-      </c>
-      <c r="I8" s="1">
-        <v>956124</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1056632</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1160447</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1196739</v>
-      </c>
-      <c r="M8" s="1">
-        <v>1330694</v>
-      </c>
-      <c r="N8" s="1">
-        <v>1470550.45</v>
-      </c>
-      <c r="O8" s="1">
-        <v>1620655.48</v>
-      </c>
-      <c r="P8" s="1">
-        <v>1699865</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="1">
-        <v>321853</v>
-      </c>
-      <c r="C9" s="1">
-        <v>342607</v>
-      </c>
-      <c r="D9" s="1">
-        <v>382137</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1206819</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1565602</v>
-      </c>
-      <c r="G9" s="1">
-        <v>2008700</v>
-      </c>
-      <c r="H9" s="1">
-        <v>2285623</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2566803</v>
-      </c>
-      <c r="J9" s="1">
-        <v>2838048</v>
-      </c>
-      <c r="K9" s="1">
-        <v>3115085</v>
-      </c>
-      <c r="L9" s="1">
-        <v>3379404</v>
-      </c>
-      <c r="M9" s="1">
-        <v>3731554</v>
-      </c>
-      <c r="N9" s="1">
-        <v>4103654.73</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4505237</v>
-      </c>
-      <c r="P9" s="1">
-        <v>4692674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="1">
-        <v>243049</v>
-      </c>
-      <c r="C10" s="1">
-        <v>262846</v>
-      </c>
-      <c r="D10" s="1">
-        <v>304262</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1132688</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1553687</v>
-      </c>
-      <c r="G10" s="1">
-        <v>2206971</v>
-      </c>
-      <c r="H10" s="1">
-        <v>2597264</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2997380</v>
-      </c>
-      <c r="J10" s="1">
-        <v>3402495</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3764320</v>
-      </c>
-      <c r="L10" s="1">
-        <v>4215636</v>
-      </c>
-      <c r="M10" s="1">
-        <v>5085742</v>
-      </c>
-      <c r="N10" s="1">
-        <v>5865549.6500000004</v>
-      </c>
-      <c r="O10" s="1">
-        <v>6447618.7400000002</v>
-      </c>
-      <c r="P10" s="1">
         <v>6642395</v>
       </c>
     </row>

--- a/GDP_VN.xlsx
+++ b/GDP_VN.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_Project\Do_An_NNLT_R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACCAA6E3-9CF5-4F0A-9249-BEEEE584888B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E63FC6-F41A-45DF-9608-786C4A4A08BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
